--- a/assets/files/organizational-it-accessibility-key-performance-indicators-(kpi).xlsx
+++ b/assets/files/organizational-it-accessibility-key-performance-indicators-(kpi).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeldhorton/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AC61AE-D2E4-0E42-AF28-6507126D2A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBBB787-3120-BE48-84E0-73D0FDC959FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FY24 Criteria &amp; Associated KPIs" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>In FY27, include SMART, Level 3-5, accessibility-related performance metrics in the CIO and CAO performance plans and track accordingly.</t>
-  </si>
-  <si>
-    <t>Disability Group Engagement</t>
   </si>
   <si>
     <t>In FY2X, conduct outreach to at least X# of disability-related affinity groups to garner feedback and incorporate into agency policies, process and standard procedures.</t>
@@ -781,6 +778,9 @@
       </rPr>
       <t>[i.e. 1/2 time or 0.5 FTE.]</t>
     </r>
+  </si>
+  <si>
+    <t>Advocacy Organization Engagement</t>
   </si>
 </sst>
 </file>
@@ -1027,60 +1027,6 @@
   <dxfs count="9">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF002060"/>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1107,25 +1053,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1217,10 +1144,32 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color rgb="FF000000"/>
-        </bottom>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1229,6 +1178,57 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF002060"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1244,13 +1244,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF6C195C-E1B2-42BD-8E8E-29A0EF6F9016}" name="KPI_Data_Table" displayName="KPI_Data_Table" ref="A1:E75" totalsRowShown="0" headerRowDxfId="0" dataDxfId="3" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF6C195C-E1B2-42BD-8E8E-29A0EF6F9016}" name="KPI_Data_Table" displayName="KPI_Data_Table" ref="A1:E75" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0698BFB8-7513-4B14-A47A-FE334C738D37}" name="Unique KPI ID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{AFEE9D09-E5A8-4D49-9D2F-08344A8BB7DA}" name="KPI Short Name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{245018FA-D501-40C3-A65D-2C2EC55E0DC2}" name="Draft Generic KPI" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{FB6D1189-CD84-4081-AE6F-C4DD62F83281}" name="Draft KPI" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{383B5DE5-E415-7F4E-82AC-49D4B6A6D6A1}" name="Primary Aligned Dimension (From Annual Section 508 Assessment)" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0698BFB8-7513-4B14-A47A-FE334C738D37}" name="Unique KPI ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{AFEE9D09-E5A8-4D49-9D2F-08344A8BB7DA}" name="KPI Short Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{245018FA-D501-40C3-A65D-2C2EC55E0DC2}" name="Draft Generic KPI" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{FB6D1189-CD84-4081-AE6F-C4DD62F83281}" name="Draft KPI" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{383B5DE5-E415-7F4E-82AC-49D4B6A6D6A1}" name="Primary Aligned Dimension (From Annual Section 508 Assessment)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1457,8 +1457,8 @@
   <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1471,7 @@
     <col min="23" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="88" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
@@ -1513,10 +1513,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>5</v>
@@ -1714,13 +1714,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>39</v>
@@ -1731,16 +1731,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="44" x14ac:dyDescent="0.25">
@@ -1748,16 +1748,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -1765,16 +1765,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="154" x14ac:dyDescent="0.25">
@@ -1782,16 +1782,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E18" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -1799,16 +1799,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E19" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -1816,16 +1816,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E20" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -1833,16 +1833,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="154" x14ac:dyDescent="0.25">
@@ -1850,16 +1850,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -1867,16 +1867,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E23" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -1884,16 +1884,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E24" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -1901,16 +1901,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E25" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="132" x14ac:dyDescent="0.25">
@@ -1918,16 +1918,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="176" x14ac:dyDescent="0.25">
@@ -1935,16 +1935,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E27" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -1952,16 +1952,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E28" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="22" x14ac:dyDescent="0.25">
@@ -1969,16 +1969,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E29" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -1986,16 +1986,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="E30" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2003,16 +2003,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E31" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2020,16 +2020,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="E32" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2037,16 +2037,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E33" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2054,16 +2054,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E34" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2071,16 +2071,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E35" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="22" x14ac:dyDescent="0.25">
@@ -2088,16 +2088,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="E36" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2105,16 +2105,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="E37" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2122,16 +2122,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="E38" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2139,16 +2139,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="E39" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2156,16 +2156,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E40" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2173,16 +2173,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E41" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2190,16 +2190,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E42" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="66" x14ac:dyDescent="0.25">
@@ -2207,16 +2207,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E43" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="66" x14ac:dyDescent="0.25">
@@ -2224,16 +2224,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E44" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2241,16 +2241,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E45" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2258,16 +2258,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E46" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2275,16 +2275,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E47" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2292,16 +2292,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E48" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2309,16 +2309,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E49" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="66" x14ac:dyDescent="0.25">
@@ -2326,16 +2326,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E50" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2343,16 +2343,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E51" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="66" x14ac:dyDescent="0.25">
@@ -2360,16 +2360,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="E52" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2377,16 +2377,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="E53" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2394,16 +2394,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E54" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2411,16 +2411,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E55" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2428,16 +2428,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E56" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="66" x14ac:dyDescent="0.25">
@@ -2445,16 +2445,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E57" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="66" x14ac:dyDescent="0.25">
@@ -2462,16 +2462,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E58" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="66" x14ac:dyDescent="0.25">
@@ -2479,16 +2479,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E59" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="66" x14ac:dyDescent="0.25">
@@ -2496,16 +2496,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="E60" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2513,16 +2513,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E61" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2530,16 +2530,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="E62" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="66" x14ac:dyDescent="0.25">
@@ -2547,16 +2547,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E63" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="154" x14ac:dyDescent="0.25">
@@ -2564,16 +2564,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="E64" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2581,16 +2581,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="E65" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="66" x14ac:dyDescent="0.25">
@@ -2598,16 +2598,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="E66" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="66" x14ac:dyDescent="0.25">
@@ -2615,16 +2615,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="E67" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2632,16 +2632,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="E68" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2649,16 +2649,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="E69" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2666,16 +2666,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="E70" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="66" x14ac:dyDescent="0.25">
@@ -2683,16 +2683,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="E71" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2700,16 +2700,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="E72" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="66" x14ac:dyDescent="0.25">
@@ -2717,16 +2717,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="E73" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -2734,16 +2734,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="E74" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="154" x14ac:dyDescent="0.25">
@@ -2751,16 +2751,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="E75" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
